--- a/CircleRoom/StageData.xlsx
+++ b/CircleRoom/StageData.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347036\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347036\Desktop\tashiro\MyGames\CircleRoom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF867CD3-0F3B-4B3F-9F7D-2FCD99D45E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB184602-602C-43DF-9298-863EE0000140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15555" yWindow="2580" windowWidth="15420" windowHeight="11295" xr2:uid="{E82E1E36-96FA-4EA2-80D3-1FAF961285C4}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="9690" windowHeight="11295" xr2:uid="{E82E1E36-96FA-4EA2-80D3-1FAF961285C4}"/>
   </bookViews>
   <sheets>
-    <sheet name="StageData" sheetId="1" r:id="rId1"/>
+    <sheet name="LevelData" sheetId="1" r:id="rId1"/>
     <sheet name="Temp" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
   <si>
     <t>サークル</t>
     <phoneticPr fontId="1"/>
@@ -164,13 +164,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>生成数</t>
-    <rPh sb="0" eb="3">
-      <t>セイセイスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>はじめ間隔フレーム</t>
     <rPh sb="3" eb="5">
       <t>カンカク</t>
@@ -231,12 +224,86 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ステージ名数</t>
+    <t>ステージ数</t>
     <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
       <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Large</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初回生成数</t>
+    <rPh sb="0" eb="2">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セイセイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近接遭遇</t>
+    <rPh sb="0" eb="2">
+      <t>キンセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウグウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近接遭遇</t>
+    <rPh sb="0" eb="4">
+      <t>キンセツソウグウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランナー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dash</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参照数</t>
+    <rPh sb="0" eb="3">
+      <t>サンショウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前全部書く</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reaper</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発生</t>
+    <rPh sb="0" eb="2">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分離</t>
+    <rPh sb="0" eb="2">
+      <t>ブンリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -602,30 +669,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F9729-F7C7-4C4F-B483-A775FA299821}">
-  <dimension ref="B2:E14"/>
+  <dimension ref="B2:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B2">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>0</v>
       </c>
@@ -638,8 +723,20 @@
       <c r="E5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>3</v>
       </c>
@@ -652,13 +749,31 @@
       <c r="E6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -666,7 +781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>0</v>
       </c>
@@ -680,7 +795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -688,7 +803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>4</v>
       </c>
@@ -702,19 +817,416 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>180</v>
+      </c>
+      <c r="E21">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>300</v>
+      </c>
+      <c r="E22">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>60</v>
+      </c>
+      <c r="F37">
+        <v>7</v>
+      </c>
+      <c r="G37" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" t="s">
+        <v>3</v>
+      </c>
+      <c r="K37" t="s">
+        <v>30</v>
+      </c>
+      <c r="L37" t="s">
+        <v>35</v>
+      </c>
+      <c r="M37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>300</v>
+      </c>
+      <c r="E47">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>900</v>
       </c>
     </row>
   </sheetData>
@@ -726,10 +1238,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785EB06A-9B26-49DF-86D9-968647D32524}">
-  <dimension ref="B1:K8"/>
+  <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -739,22 +1251,22 @@
     <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -767,89 +1279,106 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
       <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B15">
         <v>3</v>
       </c>
-      <c r="H8" t="s">
+      <c r="C15" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CircleRoom/StageData.xlsx
+++ b/CircleRoom/StageData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347036\Desktop\tashiro\MyGames\CircleRoom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB184602-602C-43DF-9298-863EE0000140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F7A91BF-8E68-4D21-B4F2-7723A129FA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="9690" windowHeight="11295" xr2:uid="{E82E1E36-96FA-4EA2-80D3-1FAF961285C4}"/>
+    <workbookView xWindow="3660" yWindow="870" windowWidth="9690" windowHeight="11295" xr2:uid="{E82E1E36-96FA-4EA2-80D3-1FAF961285C4}"/>
   </bookViews>
   <sheets>
-    <sheet name="LevelData" sheetId="1" r:id="rId1"/>
+    <sheet name="StageData" sheetId="1" r:id="rId1"/>
     <sheet name="Temp" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>サークル</t>
     <phoneticPr fontId="1"/>
@@ -669,277 +669,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F9729-F7C7-4C4F-B483-A775FA299821}">
-  <dimension ref="B2:M49"/>
+  <dimension ref="B2:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
         <v>2</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
         <v>180</v>
       </c>
-      <c r="E21">
+      <c r="E23">
         <v>600</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>300</v>
-      </c>
-      <c r="E22">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E24">
         <v>600</v>
@@ -947,247 +877,225 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>600</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>10</v>
+      <c r="B28" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29" t="s">
         <v>3</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>4</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B30">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B33" t="s">
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B36" t="s">
         <v>31</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B36">
-        <v>4</v>
+      <c r="C36">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>60</v>
-      </c>
-      <c r="F37">
-        <v>7</v>
-      </c>
-      <c r="G37" t="s">
-        <v>0</v>
-      </c>
-      <c r="H37" t="s">
-        <v>6</v>
-      </c>
-      <c r="I37" t="s">
-        <v>29</v>
-      </c>
-      <c r="J37" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
         <v>3</v>
-      </c>
-      <c r="K37" t="s">
-        <v>30</v>
-      </c>
-      <c r="L37" t="s">
-        <v>35</v>
-      </c>
-      <c r="M37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>5</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B40">
-        <v>3</v>
-      </c>
-      <c r="C40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>60</v>
+      </c>
+      <c r="F41">
+        <v>7</v>
+      </c>
+      <c r="G41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L41" t="s">
+        <v>35</v>
+      </c>
+      <c r="M41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
         <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>35</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>600</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1195,21 +1103,21 @@
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1226,6 +1134,50 @@
         <v>0</v>
       </c>
       <c r="E49">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>300</v>
+      </c>
+      <c r="E51">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
         <v>900</v>
       </c>
     </row>

--- a/CircleRoom/StageData.xlsx
+++ b/CircleRoom/StageData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347036\Desktop\tashiro\MyGames\CircleRoom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F7A91BF-8E68-4D21-B4F2-7723A129FA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50987AA1-7BF7-4481-834C-9B6CC188F15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="870" windowWidth="9690" windowHeight="11295" xr2:uid="{E82E1E36-96FA-4EA2-80D3-1FAF961285C4}"/>
+    <workbookView xWindow="6210" yWindow="1485" windowWidth="22275" windowHeight="11295" activeTab="1" xr2:uid="{E82E1E36-96FA-4EA2-80D3-1FAF961285C4}"/>
   </bookViews>
   <sheets>
     <sheet name="StageData" sheetId="1" r:id="rId1"/>
-    <sheet name="Temp" sheetId="2" r:id="rId2"/>
+    <sheet name="StageMaster" sheetId="3" r:id="rId2"/>
+    <sheet name="Temp" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="55">
   <si>
     <t>サークル</t>
     <phoneticPr fontId="1"/>
@@ -304,6 +305,174 @@
     <t>分離</t>
     <rPh sb="0" eb="2">
       <t>ブンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隣接ステージ数</t>
+    <rPh sb="0" eb="2">
+      <t>リンセツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隣接１</t>
+    <rPh sb="0" eb="2">
+      <t>リンセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隣接２</t>
+    <rPh sb="0" eb="2">
+      <t>リンセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵種類数</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵１</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵１情報</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵２</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵２情報</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隣接ステージ名</t>
+    <rPh sb="0" eb="2">
+      <t>リンセツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件情報</t>
+    <rPh sb="0" eb="4">
+      <t>ジョウケンジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出現敵種類数</t>
+    <rPh sb="0" eb="6">
+      <t>シュツゲンテキシュルイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同名条件種類数</t>
+    <rPh sb="0" eb="2">
+      <t>ドウメイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>シュルイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期生成数</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期生成間隔</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>セイセイカンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期遅延フレーム</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生成間隔</t>
+    <rPh sb="0" eb="2">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報群数</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>グンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報群</t>
+    <rPh sb="0" eb="3">
+      <t>ジョウホウグン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -329,12 +498,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -351,8 +526,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -669,30 +847,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F9729-F7C7-4C4F-B483-A775FA299821}">
-  <dimension ref="B2:M53"/>
+  <dimension ref="A2:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43:M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B2">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
       <c r="B5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
       <c r="B6">
         <v>0</v>
       </c>
@@ -706,7 +896,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
       <c r="B7">
         <v>3</v>
       </c>
@@ -720,12 +913,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
       <c r="B8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -733,7 +932,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
       <c r="B10">
         <v>0</v>
       </c>
@@ -747,7 +949,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
@@ -755,7 +960,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
       <c r="B12">
         <v>4</v>
       </c>
@@ -769,17 +977,20 @@
         <v>360</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
       <c r="B13">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>2</v>
       </c>
@@ -897,36 +1108,27 @@
         <v>600</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B28" t="s">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B29">
-        <v>3</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -937,187 +1139,184 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B33">
         <v>2</v>
       </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
+      <c r="B34">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B35">
-        <v>0</v>
+      <c r="B35" t="s">
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B36" t="s">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
         <v>31</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B37">
-        <v>2</v>
-      </c>
       <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
         <v>330</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B39" t="s">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B41" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41">
-        <v>60</v>
-      </c>
-      <c r="F41">
-        <v>7</v>
-      </c>
-      <c r="G41" t="s">
-        <v>0</v>
-      </c>
-      <c r="H41" t="s">
-        <v>6</v>
-      </c>
-      <c r="I41" t="s">
-        <v>29</v>
-      </c>
-      <c r="J41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L41" t="s">
-        <v>35</v>
-      </c>
-      <c r="M41" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>60</v>
+      </c>
+      <c r="F43">
+        <v>7</v>
+      </c>
+      <c r="G43" t="s">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" t="s">
+        <v>30</v>
+      </c>
+      <c r="L43" t="s">
         <v>35</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>5</v>
+      <c r="M43" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B45">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1125,7 +1324,7 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1134,12 +1333,12 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1153,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>600</v>
@@ -1161,7 +1360,7 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -1175,10 +1374,37 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E53">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
         <v>900</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B56">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1189,11 +1415,523 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E620EBF3-087F-4C32-81F5-E14C3AD7109A}">
+  <dimension ref="A4:W17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>600</v>
+      </c>
+      <c r="K6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>180</v>
+      </c>
+      <c r="H8">
+        <v>600</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>300</v>
+      </c>
+      <c r="H9">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>330</v>
+      </c>
+      <c r="K12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="K13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>600</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>300</v>
+      </c>
+      <c r="H16">
+        <v>600</v>
+      </c>
+      <c r="K16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>60</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>7</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>6</v>
+      </c>
+      <c r="S16" t="s">
+        <v>29</v>
+      </c>
+      <c r="T16" t="s">
+        <v>3</v>
+      </c>
+      <c r="U16" t="s">
+        <v>30</v>
+      </c>
+      <c r="V16" t="s">
+        <v>35</v>
+      </c>
+      <c r="W16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>900</v>
+      </c>
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785EB06A-9B26-49DF-86D9-968647D32524}">
   <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/CircleRoom/StageData.xlsx
+++ b/CircleRoom/StageData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347036\Desktop\tashiro\MyGames\CircleRoom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50987AA1-7BF7-4481-834C-9B6CC188F15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2579232B-74A5-4B2A-AF61-25F7B4D57C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="1485" windowWidth="22275" windowHeight="11295" activeTab="1" xr2:uid="{E82E1E36-96FA-4EA2-80D3-1FAF961285C4}"/>
+    <workbookView xWindow="4875" yWindow="1830" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{E82E1E36-96FA-4EA2-80D3-1FAF961285C4}"/>
   </bookViews>
   <sheets>
     <sheet name="StageData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="58">
   <si>
     <t>サークル</t>
     <phoneticPr fontId="1"/>
@@ -474,6 +474,24 @@
     <rPh sb="0" eb="3">
       <t>ジョウホウグン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Create</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要警戒</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ケイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Division</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1416,10 +1434,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E620EBF3-087F-4C32-81F5-E14C3AD7109A}">
-  <dimension ref="A4:W17"/>
+  <dimension ref="A4:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1888,7 +1907,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>31</v>
       </c>
@@ -1918,11 +1937,483 @@
       </c>
       <c r="N17">
         <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>180</v>
+      </c>
+      <c r="H21">
+        <v>960</v>
+      </c>
+      <c r="K21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>360</v>
+      </c>
+      <c r="H22">
+        <v>960</v>
+      </c>
+      <c r="K22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24" t="s">
+        <v>35</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>240</v>
+      </c>
+      <c r="H25">
+        <v>600</v>
+      </c>
+      <c r="K25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>60</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>7</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>0</v>
+      </c>
+      <c r="R25" t="s">
+        <v>6</v>
+      </c>
+      <c r="S25" t="s">
+        <v>29</v>
+      </c>
+      <c r="T25" t="s">
+        <v>3</v>
+      </c>
+      <c r="U25" t="s">
+        <v>30</v>
+      </c>
+      <c r="V25" t="s">
+        <v>35</v>
+      </c>
+      <c r="W25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="K27" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>35</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>40</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>-360</v>
+      </c>
+      <c r="H32">
+        <v>480</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
